--- a/1st_round_screening/ACE/iteration_4/data/labeled_norm_4.xlsx
+++ b/1st_round_screening/ACE/iteration_4/data/labeled_norm_4.xlsx
@@ -565,10 +565,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0.08333333333333333</v>
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>0.02473009803142832</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004222595090998011</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1874812088449538</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02945617533100623</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0.08333333333333333</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.2471507153323309</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.0009160900066095151</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.1771229899023298</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.02851492147488786</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>66</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.2613006119026017</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.005714350760545031</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.1905518484186094</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.02693092733895594</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>67</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.02388986331354102</v>
+        <v>0.2409853712679557</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0006411941878419601</v>
+        <v>0.008261156630543619</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2117221818495936</v>
+        <v>0.278452708592021</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1367239056738609</v>
+        <v>0.009811977037171835</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -914,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0.08333333333333333</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0.02349113895718168</v>
+        <v>0.2459207043994695</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0002026820559775281</v>
+        <v>0.01079335589544936</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1799594441777604</v>
+        <v>0.1931963422602321</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07091030546417981</v>
+        <v>0.02767352805606441</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0.08333333333333333</v>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0.0246587068879228</v>
+        <v>0.2609641972798536</v>
       </c>
       <c r="T7" t="n">
-        <v>0.000867645999308303</v>
+        <v>0.006395231492316828</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2437475168748794</v>
+        <v>0.2140883793537483</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07460927297349969</v>
+        <v>0.03059163696981659</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.2435125840010032</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.003288847074886908</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0.4068690314372083</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.04806748250956978</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0.08333333333333333</v>
@@ -1171,22 +1171,22 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0.02321862353190073</v>
+        <v>0.2533809670999532</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001635492403707505</v>
+        <v>0.01407554974262399</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1750851952273476</v>
+        <v>0.2091586417760695</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04148280679271676</v>
+        <v>0.0455908218578953</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>72</v>
       </c>
       <c r="B10" t="n">
-        <v>0.98</v>
+        <v>0.585</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.2696002342609674</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.00884111947188675</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0.2643899290589455</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.09725238927911815</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>73</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1309,16 +1309,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1329,22 +1329,22 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>0.02319021360165947</v>
+        <v>0.2567233845501136</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0008810197346371737</v>
+        <v>0.009923295663012612</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1567649203963336</v>
+        <v>0.3670605344469642</v>
       </c>
       <c r="V11" t="n">
-        <v>0.07473032078560189</v>
+        <v>0.0407964535378877</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>74</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.734</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0.08333333333333333</v>
@@ -1434,10 +1434,10 @@
         <v>75</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0.08333333333333333</v>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.02344645055978952</v>
+        <v>0.2476571888730011</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00105811314893518</v>
+        <v>0.0001343118628380251</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2017125275133698</v>
+        <v>0.1527751734692424</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02620122843877186</v>
+        <v>0.00132243161509747</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>76</v>
       </c>
       <c r="B14" t="n">
-        <v>0.862</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138</v>
+        <v>0.433</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0.2479384588797408</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.01701671704130082</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.1690485439518775</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.03672282978658929</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>77</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0.08333333333333333</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.02289903978008236</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0001871415767987693</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.113365729012121</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01799474486457962</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>78</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0.08333333333333333</v>
@@ -1724,22 +1724,22 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.2425327101715223</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.01203792778159101</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0.1960958164780076</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.03359891269384781</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0.08333333333333333</v>
